--- a/Excell/Individual Extended Properties.xlsx
+++ b/Excell/Individual Extended Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TFS\B2BSystem\File\SPs\B2BSPs\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B54FD3-135E-4F44-ACC9-362A9E708AED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4781D3E-C4A6-4AFF-BEC5-FB4877269485}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="2865" windowWidth="16440" windowHeight="11385" tabRatio="884" firstSheet="4" activeTab="11" xr2:uid="{84AEEA03-6386-4DCE-905E-20FD08DF3245}"/>
+    <workbookView xWindow="9945" yWindow="1980" windowWidth="14850" windowHeight="11385" tabRatio="884" firstSheet="5" activeTab="12" xr2:uid="{84AEEA03-6386-4DCE-905E-20FD08DF3245}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7341" uniqueCount="2622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7283" uniqueCount="2592">
   <si>
     <t>Processors</t>
   </si>
@@ -7183,96 +7183,6 @@
   </si>
   <si>
     <t>Worry Free Gadgets</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>64 GB</t>
-  </si>
-  <si>
-    <t>60 GB</t>
-  </si>
-  <si>
-    <t>32 GB</t>
-  </si>
-  <si>
-    <t>24 GB</t>
-  </si>
-  <si>
-    <t>20 GB</t>
-  </si>
-  <si>
-    <t>16 GB</t>
-  </si>
-  <si>
-    <t>8 GB</t>
-  </si>
-  <si>
-    <t>250 GB</t>
-  </si>
-  <si>
-    <t>240 GB</t>
-  </si>
-  <si>
-    <t>180 GB</t>
-  </si>
-  <si>
-    <t>160 GB</t>
-  </si>
-  <si>
-    <t>128 GB</t>
-  </si>
-  <si>
-    <t>120 GB</t>
-  </si>
-  <si>
-    <t>100 GB</t>
-  </si>
-  <si>
-    <t>480 GB</t>
-  </si>
-  <si>
-    <t>384 GB</t>
-  </si>
-  <si>
-    <t>360 GB</t>
-  </si>
-  <si>
-    <t>256 GB</t>
-  </si>
-  <si>
-    <t>1 TB</t>
-  </si>
-  <si>
-    <t>960 GB</t>
-  </si>
-  <si>
-    <t>768 GB</t>
-  </si>
-  <si>
-    <t>512 GB</t>
-  </si>
-  <si>
-    <t>500 GB</t>
-  </si>
-  <si>
-    <t>1 TB Samsung 960 EVO</t>
-  </si>
-  <si>
-    <t>4 TB</t>
-  </si>
-  <si>
-    <t>3 TB</t>
-  </si>
-  <si>
-    <t>2 TB</t>
-  </si>
-  <si>
-    <t>0 GB</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Aberdeen Silver</t>
@@ -8297,8 +8207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADCA97B-74C9-497C-8E40-A40EAD9CA4C1}">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9291,7 +9201,7 @@
         <v>2316</v>
       </c>
       <c r="C123" t="s">
-        <v>2567</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
@@ -9299,7 +9209,7 @@
         <v>2316</v>
       </c>
       <c r="C124" t="s">
-        <v>2568</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -9307,7 +9217,7 @@
         <v>2316</v>
       </c>
       <c r="C125" t="s">
-        <v>2569</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
@@ -9315,7 +9225,7 @@
         <v>2316</v>
       </c>
       <c r="C126" t="s">
-        <v>2570</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
@@ -9323,7 +9233,7 @@
         <v>2316</v>
       </c>
       <c r="C127" t="s">
-        <v>2571</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
@@ -9339,7 +9249,7 @@
         <v>2316</v>
       </c>
       <c r="C129" t="s">
-        <v>2572</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
@@ -9347,7 +9257,7 @@
         <v>2316</v>
       </c>
       <c r="C130" t="s">
-        <v>2573</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
@@ -9355,7 +9265,7 @@
         <v>2316</v>
       </c>
       <c r="C131" t="s">
-        <v>2574</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
@@ -9363,7 +9273,7 @@
         <v>2316</v>
       </c>
       <c r="C132" t="s">
-        <v>2575</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
@@ -9371,7 +9281,7 @@
         <v>2316</v>
       </c>
       <c r="C133" t="s">
-        <v>2576</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
@@ -9379,7 +9289,7 @@
         <v>2316</v>
       </c>
       <c r="C134" t="s">
-        <v>2577</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
@@ -9387,7 +9297,7 @@
         <v>2316</v>
       </c>
       <c r="C135" t="s">
-        <v>2578</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
@@ -9395,7 +9305,7 @@
         <v>2316</v>
       </c>
       <c r="C136" t="s">
-        <v>2579</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
@@ -9459,7 +9369,7 @@
         <v>2316</v>
       </c>
       <c r="C144" t="s">
-        <v>2580</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
@@ -9467,7 +9377,7 @@
         <v>2316</v>
       </c>
       <c r="C145" t="s">
-        <v>2581</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
@@ -9475,7 +9385,7 @@
         <v>2316</v>
       </c>
       <c r="C146" t="s">
-        <v>2582</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
@@ -9499,7 +9409,7 @@
         <v>2316</v>
       </c>
       <c r="C149" t="s">
-        <v>2583</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
@@ -9507,7 +9417,7 @@
         <v>2316</v>
       </c>
       <c r="C150" t="s">
-        <v>2584</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
@@ -9531,7 +9441,7 @@
         <v>2316</v>
       </c>
       <c r="C153" t="s">
-        <v>2585</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
@@ -9539,7 +9449,7 @@
         <v>2316</v>
       </c>
       <c r="C154" t="s">
-        <v>2586</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
@@ -9555,7 +9465,7 @@
         <v>2316</v>
       </c>
       <c r="C156" t="s">
-        <v>2587</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
@@ -9563,7 +9473,7 @@
         <v>2316</v>
       </c>
       <c r="C157" t="s">
-        <v>2588</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
@@ -9571,7 +9481,7 @@
         <v>2316</v>
       </c>
       <c r="C158" t="s">
-        <v>2589</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
@@ -9579,7 +9489,7 @@
         <v>2316</v>
       </c>
       <c r="C159" t="s">
-        <v>2590</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
@@ -9587,7 +9497,7 @@
         <v>2316</v>
       </c>
       <c r="C160" t="s">
-        <v>2591</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
@@ -9595,7 +9505,7 @@
         <v>2316</v>
       </c>
       <c r="C161" t="s">
-        <v>2592</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
@@ -9603,7 +9513,7 @@
         <v>2316</v>
       </c>
       <c r="C162" t="s">
-        <v>2593</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
@@ -9611,7 +9521,7 @@
         <v>2316</v>
       </c>
       <c r="C163" t="s">
-        <v>2594</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
@@ -9619,7 +9529,7 @@
         <v>2316</v>
       </c>
       <c r="C164" t="s">
-        <v>2595</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
@@ -9635,7 +9545,7 @@
         <v>2316</v>
       </c>
       <c r="C166" t="s">
-        <v>2596</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
@@ -9651,7 +9561,7 @@
         <v>2316</v>
       </c>
       <c r="C168" t="s">
-        <v>2597</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
@@ -9659,7 +9569,7 @@
         <v>2316</v>
       </c>
       <c r="C169" t="s">
-        <v>2598</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
@@ -9675,7 +9585,7 @@
         <v>2316</v>
       </c>
       <c r="C171" t="s">
-        <v>2599</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
@@ -9683,7 +9593,7 @@
         <v>2316</v>
       </c>
       <c r="C172" t="s">
-        <v>2600</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -9691,7 +9601,7 @@
         <v>2316</v>
       </c>
       <c r="C173" t="s">
-        <v>2601</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
@@ -9699,7 +9609,7 @@
         <v>2316</v>
       </c>
       <c r="C174" t="s">
-        <v>2602</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
@@ -9707,7 +9617,7 @@
         <v>2316</v>
       </c>
       <c r="C175" t="s">
-        <v>2603</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
@@ -9731,7 +9641,7 @@
         <v>2316</v>
       </c>
       <c r="C178" t="s">
-        <v>2604</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
@@ -9739,7 +9649,7 @@
         <v>2316</v>
       </c>
       <c r="C179" t="s">
-        <v>2605</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
@@ -9747,7 +9657,7 @@
         <v>2316</v>
       </c>
       <c r="C180" t="s">
-        <v>2606</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
@@ -9755,7 +9665,7 @@
         <v>2316</v>
       </c>
       <c r="C181" t="s">
-        <v>2607</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
@@ -9763,7 +9673,7 @@
         <v>2316</v>
       </c>
       <c r="C182" t="s">
-        <v>2608</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
@@ -9771,7 +9681,7 @@
         <v>2316</v>
       </c>
       <c r="C183" t="s">
-        <v>2609</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -9779,7 +9689,7 @@
         <v>2316</v>
       </c>
       <c r="C184" t="s">
-        <v>2610</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
@@ -9787,7 +9697,7 @@
         <v>2316</v>
       </c>
       <c r="C185" t="s">
-        <v>2611</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
@@ -9795,7 +9705,7 @@
         <v>2316</v>
       </c>
       <c r="C186" t="s">
-        <v>2612</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
@@ -9803,7 +9713,7 @@
         <v>2316</v>
       </c>
       <c r="C187" t="s">
-        <v>2613</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
@@ -9811,7 +9721,7 @@
         <v>2316</v>
       </c>
       <c r="C188" t="s">
-        <v>2614</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
@@ -9819,7 +9729,7 @@
         <v>2316</v>
       </c>
       <c r="C189" t="s">
-        <v>2615</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
@@ -9827,7 +9737,7 @@
         <v>2316</v>
       </c>
       <c r="C190" t="s">
-        <v>2616</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
@@ -9835,7 +9745,7 @@
         <v>2316</v>
       </c>
       <c r="C191" t="s">
-        <v>2617</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
@@ -9843,7 +9753,7 @@
         <v>2316</v>
       </c>
       <c r="C192" t="s">
-        <v>2618</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
@@ -9859,7 +9769,7 @@
         <v>2316</v>
       </c>
       <c r="C194" t="s">
-        <v>2619</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
@@ -9867,7 +9777,7 @@
         <v>2316</v>
       </c>
       <c r="C195" t="s">
-        <v>2620</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
@@ -9875,7 +9785,7 @@
         <v>2316</v>
       </c>
       <c r="C196" t="s">
-        <v>2621</v>
+        <v>2591</v>
       </c>
     </row>
   </sheetData>
@@ -9887,8 +9797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F904421A-5931-46B2-B6CE-FC04A61083DE}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="B2:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10365,8 +10275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05A5128-6B2F-4F42-86F9-B4577EFC26A4}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C87" sqref="B2:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10551,7 +10461,7 @@
         <v>2316</v>
       </c>
       <c r="C22" t="s">
-        <v>2410</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -10567,7 +10477,7 @@
         <v>2316</v>
       </c>
       <c r="C24" t="s">
-        <v>2411</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -10575,7 +10485,7 @@
         <v>2316</v>
       </c>
       <c r="C25" t="s">
-        <v>2412</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -10583,7 +10493,7 @@
         <v>2316</v>
       </c>
       <c r="C26" t="s">
-        <v>2413</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -10591,7 +10501,7 @@
         <v>2316</v>
       </c>
       <c r="C27" t="s">
-        <v>2414</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -10607,7 +10517,7 @@
         <v>2316</v>
       </c>
       <c r="C29" t="s">
-        <v>2415</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -10623,7 +10533,7 @@
         <v>2316</v>
       </c>
       <c r="C31" t="s">
-        <v>2416</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -10631,7 +10541,7 @@
         <v>2316</v>
       </c>
       <c r="C32" t="s">
-        <v>2417</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -10639,7 +10549,7 @@
         <v>2316</v>
       </c>
       <c r="C33" t="s">
-        <v>2418</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -10647,7 +10557,7 @@
         <v>2316</v>
       </c>
       <c r="C34" t="s">
-        <v>2419</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -10655,7 +10565,7 @@
         <v>2316</v>
       </c>
       <c r="C35" t="s">
-        <v>2420</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -10663,7 +10573,7 @@
         <v>2316</v>
       </c>
       <c r="C36" t="s">
-        <v>2421</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -10671,7 +10581,7 @@
         <v>2316</v>
       </c>
       <c r="C37" t="s">
-        <v>2422</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -10679,7 +10589,7 @@
         <v>2316</v>
       </c>
       <c r="C38" t="s">
-        <v>2423</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -10687,7 +10597,7 @@
         <v>2316</v>
       </c>
       <c r="C39" t="s">
-        <v>2424</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -10695,7 +10605,7 @@
         <v>2316</v>
       </c>
       <c r="C40" t="s">
-        <v>2425</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -10703,7 +10613,7 @@
         <v>2316</v>
       </c>
       <c r="C41" t="s">
-        <v>2426</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -10711,7 +10621,7 @@
         <v>2316</v>
       </c>
       <c r="C42" t="s">
-        <v>2427</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -10719,7 +10629,7 @@
         <v>2316</v>
       </c>
       <c r="C43" t="s">
-        <v>2428</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -10727,7 +10637,7 @@
         <v>2316</v>
       </c>
       <c r="C44" t="s">
-        <v>2429</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -10735,7 +10645,7 @@
         <v>2316</v>
       </c>
       <c r="C45" t="s">
-        <v>2430</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -10751,7 +10661,7 @@
         <v>2316</v>
       </c>
       <c r="C47" t="s">
-        <v>2431</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -10759,7 +10669,7 @@
         <v>2316</v>
       </c>
       <c r="C48" t="s">
-        <v>2432</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -10767,7 +10677,7 @@
         <v>2316</v>
       </c>
       <c r="C49" t="s">
-        <v>2433</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -10791,7 +10701,7 @@
         <v>2316</v>
       </c>
       <c r="C52" t="s">
-        <v>2434</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -10807,7 +10717,7 @@
         <v>2316</v>
       </c>
       <c r="C54" t="s">
-        <v>2435</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -10815,7 +10725,7 @@
         <v>2316</v>
       </c>
       <c r="C55" t="s">
-        <v>2436</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -10823,7 +10733,7 @@
         <v>2316</v>
       </c>
       <c r="C56" t="s">
-        <v>2437</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -10831,7 +10741,7 @@
         <v>2316</v>
       </c>
       <c r="C57" t="s">
-        <v>2438</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -10839,7 +10749,7 @@
         <v>2316</v>
       </c>
       <c r="C58" t="s">
-        <v>2439</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -10855,7 +10765,7 @@
         <v>2316</v>
       </c>
       <c r="C60" t="s">
-        <v>2440</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -10863,7 +10773,7 @@
         <v>2316</v>
       </c>
       <c r="C61" t="s">
-        <v>2441</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -10871,7 +10781,7 @@
         <v>2316</v>
       </c>
       <c r="C62" t="s">
-        <v>2442</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -10879,7 +10789,7 @@
         <v>2316</v>
       </c>
       <c r="C63" t="s">
-        <v>2443</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -10887,7 +10797,7 @@
         <v>2316</v>
       </c>
       <c r="C64" t="s">
-        <v>2444</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -10903,7 +10813,7 @@
         <v>2316</v>
       </c>
       <c r="C66" t="s">
-        <v>2445</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -10911,7 +10821,7 @@
         <v>2316</v>
       </c>
       <c r="C67" t="s">
-        <v>2446</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -10927,7 +10837,7 @@
         <v>2316</v>
       </c>
       <c r="C69" t="s">
-        <v>2447</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -10935,7 +10845,7 @@
         <v>2316</v>
       </c>
       <c r="C70" t="s">
-        <v>2448</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -10943,7 +10853,7 @@
         <v>2316</v>
       </c>
       <c r="C71" t="s">
-        <v>2449</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -10951,7 +10861,7 @@
         <v>2316</v>
       </c>
       <c r="C72" t="s">
-        <v>2450</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -10959,7 +10869,7 @@
         <v>2316</v>
       </c>
       <c r="C73" t="s">
-        <v>2451</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -10967,7 +10877,7 @@
         <v>2316</v>
       </c>
       <c r="C74" t="s">
-        <v>2452</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -10975,7 +10885,7 @@
         <v>2316</v>
       </c>
       <c r="C75" t="s">
-        <v>2453</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -10983,7 +10893,7 @@
         <v>2316</v>
       </c>
       <c r="C76" t="s">
-        <v>2454</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -11007,7 +10917,7 @@
         <v>2316</v>
       </c>
       <c r="C79" t="s">
-        <v>2455</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -11015,7 +10925,7 @@
         <v>2316</v>
       </c>
       <c r="C80" t="s">
-        <v>2456</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -11023,7 +10933,7 @@
         <v>2316</v>
       </c>
       <c r="C81" t="s">
-        <v>2457</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -11031,7 +10941,7 @@
         <v>2316</v>
       </c>
       <c r="C82" t="s">
-        <v>2458</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -11039,7 +10949,7 @@
         <v>2316</v>
       </c>
       <c r="C83" t="s">
-        <v>2459</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -11047,7 +10957,7 @@
         <v>2316</v>
       </c>
       <c r="C84" t="s">
-        <v>2460</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -11055,7 +10965,7 @@
         <v>2316</v>
       </c>
       <c r="C85" t="s">
-        <v>2461</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -11063,7 +10973,7 @@
         <v>2316</v>
       </c>
       <c r="C86" t="s">
-        <v>2462</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -11071,7 +10981,7 @@
         <v>2316</v>
       </c>
       <c r="C87" t="s">
-        <v>2463</v>
+        <v>2433</v>
       </c>
     </row>
   </sheetData>
@@ -11083,7 +10993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C5B3C4-3C80-4656-8265-C15CCFA22B7E}">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -12033,8 +11943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C815ED-EAB7-49AA-851F-08D94D4F022D}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="B2:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12375,8 +12285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A06C3EE-F9E0-46C3-874B-1681A8A4E31E}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B92" sqref="B2:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13133,8 +13043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6C8055-FFB2-4732-89A9-99B1EFB66E07}">
   <dimension ref="A1:C614"/>
   <sheetViews>
-    <sheetView topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="D611" sqref="D611"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B614" sqref="B2:C614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16687,7 +16597,7 @@
         <v>2316</v>
       </c>
       <c r="C443" t="s">
-        <v>2464</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.25">
@@ -16695,7 +16605,7 @@
         <v>2316</v>
       </c>
       <c r="C444" t="s">
-        <v>2465</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.25">
@@ -16703,7 +16613,7 @@
         <v>2316</v>
       </c>
       <c r="C445" t="s">
-        <v>2466</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.25">
@@ -16727,7 +16637,7 @@
         <v>2316</v>
       </c>
       <c r="C448" t="s">
-        <v>2467</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.25">
@@ -16735,7 +16645,7 @@
         <v>2316</v>
       </c>
       <c r="C449" t="s">
-        <v>2468</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.25">
@@ -16743,7 +16653,7 @@
         <v>2316</v>
       </c>
       <c r="C450" t="s">
-        <v>2469</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.25">
@@ -16751,7 +16661,7 @@
         <v>2316</v>
       </c>
       <c r="C451" t="s">
-        <v>2470</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.25">
@@ -16759,7 +16669,7 @@
         <v>2316</v>
       </c>
       <c r="C452" t="s">
-        <v>2471</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.25">
@@ -16767,7 +16677,7 @@
         <v>2316</v>
       </c>
       <c r="C453" t="s">
-        <v>2472</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.25">
@@ -16775,7 +16685,7 @@
         <v>2316</v>
       </c>
       <c r="C454" t="s">
-        <v>2473</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.25">
@@ -16791,7 +16701,7 @@
         <v>2316</v>
       </c>
       <c r="C456" t="s">
-        <v>2474</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.25">
@@ -16799,7 +16709,7 @@
         <v>2316</v>
       </c>
       <c r="C457" t="s">
-        <v>2475</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.25">
@@ -16807,7 +16717,7 @@
         <v>2316</v>
       </c>
       <c r="C458" t="s">
-        <v>2476</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.25">
@@ -16919,7 +16829,7 @@
         <v>2316</v>
       </c>
       <c r="C472" t="s">
-        <v>2477</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.25">
@@ -16943,7 +16853,7 @@
         <v>2316</v>
       </c>
       <c r="C475" t="s">
-        <v>2478</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.25">
@@ -16991,7 +16901,7 @@
         <v>2316</v>
       </c>
       <c r="C481" t="s">
-        <v>2479</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.25">
@@ -16999,7 +16909,7 @@
         <v>2316</v>
       </c>
       <c r="C482" t="s">
-        <v>2480</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.25">
@@ -17007,7 +16917,7 @@
         <v>2316</v>
       </c>
       <c r="C483" t="s">
-        <v>2481</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.25">
@@ -17015,7 +16925,7 @@
         <v>2316</v>
       </c>
       <c r="C484" t="s">
-        <v>2482</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.25">
@@ -17023,7 +16933,7 @@
         <v>2316</v>
       </c>
       <c r="C485" t="s">
-        <v>2483</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.25">
@@ -17047,7 +16957,7 @@
         <v>2316</v>
       </c>
       <c r="C488" t="s">
-        <v>2484</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.25">
@@ -17055,7 +16965,7 @@
         <v>2316</v>
       </c>
       <c r="C489" t="s">
-        <v>2485</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.25">
@@ -17063,7 +16973,7 @@
         <v>2316</v>
       </c>
       <c r="C490" t="s">
-        <v>2486</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.25">
@@ -17071,7 +16981,7 @@
         <v>2316</v>
       </c>
       <c r="C491" t="s">
-        <v>2487</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.25">
@@ -17079,7 +16989,7 @@
         <v>2316</v>
       </c>
       <c r="C492" t="s">
-        <v>2488</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.25">
@@ -17087,7 +16997,7 @@
         <v>2316</v>
       </c>
       <c r="C493" t="s">
-        <v>2489</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.25">
@@ -17095,7 +17005,7 @@
         <v>2316</v>
       </c>
       <c r="C494" t="s">
-        <v>2490</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.25">
@@ -17103,7 +17013,7 @@
         <v>2316</v>
       </c>
       <c r="C495" t="s">
-        <v>2491</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.25">
@@ -17111,7 +17021,7 @@
         <v>2316</v>
       </c>
       <c r="C496" t="s">
-        <v>2492</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.25">
@@ -17119,7 +17029,7 @@
         <v>2316</v>
       </c>
       <c r="C497" t="s">
-        <v>2493</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.25">
@@ -17127,7 +17037,7 @@
         <v>2316</v>
       </c>
       <c r="C498" t="s">
-        <v>2494</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.25">
@@ -17135,7 +17045,7 @@
         <v>2316</v>
       </c>
       <c r="C499" t="s">
-        <v>2495</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.25">
@@ -17143,7 +17053,7 @@
         <v>2316</v>
       </c>
       <c r="C500" t="s">
-        <v>2496</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.25">
@@ -17159,7 +17069,7 @@
         <v>2316</v>
       </c>
       <c r="C502" t="s">
-        <v>2497</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.25">
@@ -17175,7 +17085,7 @@
         <v>2316</v>
       </c>
       <c r="C504" t="s">
-        <v>2498</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.25">
@@ -17183,7 +17093,7 @@
         <v>2316</v>
       </c>
       <c r="C505" t="s">
-        <v>2499</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.25">
@@ -17191,7 +17101,7 @@
         <v>2316</v>
       </c>
       <c r="C506" t="s">
-        <v>2500</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.25">
@@ -17199,7 +17109,7 @@
         <v>2316</v>
       </c>
       <c r="C507" t="s">
-        <v>2501</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.25">
@@ -17207,7 +17117,7 @@
         <v>2316</v>
       </c>
       <c r="C508" t="s">
-        <v>2502</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.25">
@@ -17215,7 +17125,7 @@
         <v>2316</v>
       </c>
       <c r="C509" t="s">
-        <v>2503</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.25">
@@ -17223,7 +17133,7 @@
         <v>2316</v>
       </c>
       <c r="C510" t="s">
-        <v>2504</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.25">
@@ -17231,7 +17141,7 @@
         <v>2316</v>
       </c>
       <c r="C511" t="s">
-        <v>2505</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.25">
@@ -17239,7 +17149,7 @@
         <v>2316</v>
       </c>
       <c r="C512" t="s">
-        <v>2506</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.25">
@@ -17247,7 +17157,7 @@
         <v>2316</v>
       </c>
       <c r="C513" t="s">
-        <v>2507</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.25">
@@ -17255,7 +17165,7 @@
         <v>2316</v>
       </c>
       <c r="C514" t="s">
-        <v>2508</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.25">
@@ -17263,7 +17173,7 @@
         <v>2316</v>
       </c>
       <c r="C515" t="s">
-        <v>2509</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.25">
@@ -17271,7 +17181,7 @@
         <v>2316</v>
       </c>
       <c r="C516" t="s">
-        <v>2510</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.25">
@@ -17279,7 +17189,7 @@
         <v>2316</v>
       </c>
       <c r="C517" t="s">
-        <v>2511</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.25">
@@ -17295,7 +17205,7 @@
         <v>2316</v>
       </c>
       <c r="C519" t="s">
-        <v>2512</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.25">
@@ -17303,7 +17213,7 @@
         <v>2316</v>
       </c>
       <c r="C520" t="s">
-        <v>2513</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.25">
@@ -17327,7 +17237,7 @@
         <v>2316</v>
       </c>
       <c r="C523" t="s">
-        <v>2514</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.25">
@@ -17335,7 +17245,7 @@
         <v>2316</v>
       </c>
       <c r="C524" t="s">
-        <v>2515</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="525" spans="2:3" x14ac:dyDescent="0.25">
@@ -17343,7 +17253,7 @@
         <v>2316</v>
       </c>
       <c r="C525" t="s">
-        <v>2516</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.25">
@@ -17351,7 +17261,7 @@
         <v>2316</v>
       </c>
       <c r="C526" t="s">
-        <v>2517</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="527" spans="2:3" x14ac:dyDescent="0.25">
@@ -17367,7 +17277,7 @@
         <v>2316</v>
       </c>
       <c r="C528" t="s">
-        <v>2518</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.25">
@@ -17391,7 +17301,7 @@
         <v>2316</v>
       </c>
       <c r="C531" t="s">
-        <v>2519</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.25">
@@ -17399,7 +17309,7 @@
         <v>2316</v>
       </c>
       <c r="C532" t="s">
-        <v>2520</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="533" spans="2:3" x14ac:dyDescent="0.25">
@@ -17407,7 +17317,7 @@
         <v>2316</v>
       </c>
       <c r="C533" t="s">
-        <v>2521</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.25">
@@ -17423,7 +17333,7 @@
         <v>2316</v>
       </c>
       <c r="C535" t="s">
-        <v>2522</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.25">
@@ -17463,7 +17373,7 @@
         <v>2316</v>
       </c>
       <c r="C540" t="s">
-        <v>2523</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.25">
@@ -17567,7 +17477,7 @@
         <v>2316</v>
       </c>
       <c r="C553" t="s">
-        <v>2524</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.25">
@@ -17591,7 +17501,7 @@
         <v>2316</v>
       </c>
       <c r="C556" t="s">
-        <v>2525</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.25">
@@ -17615,7 +17525,7 @@
         <v>2316</v>
       </c>
       <c r="C559" t="s">
-        <v>2526</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.25">
@@ -17647,7 +17557,7 @@
         <v>2316</v>
       </c>
       <c r="C563" t="s">
-        <v>2527</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.25">
@@ -17671,7 +17581,7 @@
         <v>2316</v>
       </c>
       <c r="C566" t="s">
-        <v>2528</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.25">
@@ -17679,7 +17589,7 @@
         <v>2316</v>
       </c>
       <c r="C567" t="s">
-        <v>2529</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.25">
@@ -17687,7 +17597,7 @@
         <v>2316</v>
       </c>
       <c r="C568" t="s">
-        <v>2530</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.25">
@@ -17703,7 +17613,7 @@
         <v>2316</v>
       </c>
       <c r="C570" t="s">
-        <v>2531</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.25">
@@ -17711,7 +17621,7 @@
         <v>2316</v>
       </c>
       <c r="C571" t="s">
-        <v>2532</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.25">
@@ -17719,7 +17629,7 @@
         <v>2316</v>
       </c>
       <c r="C572" t="s">
-        <v>2533</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.25">
@@ -17727,7 +17637,7 @@
         <v>2316</v>
       </c>
       <c r="C573" t="s">
-        <v>2534</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="574" spans="2:3" x14ac:dyDescent="0.25">
@@ -17735,7 +17645,7 @@
         <v>2316</v>
       </c>
       <c r="C574" t="s">
-        <v>2535</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.25">
@@ -17743,7 +17653,7 @@
         <v>2316</v>
       </c>
       <c r="C575" t="s">
-        <v>2536</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.25">
@@ -17751,7 +17661,7 @@
         <v>2316</v>
       </c>
       <c r="C576" t="s">
-        <v>2537</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="577" spans="2:3" x14ac:dyDescent="0.25">
@@ -17759,7 +17669,7 @@
         <v>2316</v>
       </c>
       <c r="C577" t="s">
-        <v>2538</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.25">
@@ -17767,7 +17677,7 @@
         <v>2316</v>
       </c>
       <c r="C578" t="s">
-        <v>2539</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.25">
@@ -17775,7 +17685,7 @@
         <v>2316</v>
       </c>
       <c r="C579" t="s">
-        <v>2540</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.25">
@@ -17783,7 +17693,7 @@
         <v>2316</v>
       </c>
       <c r="C580" t="s">
-        <v>2541</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.25">
@@ -17791,7 +17701,7 @@
         <v>2316</v>
       </c>
       <c r="C581" t="s">
-        <v>2542</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.25">
@@ -17799,7 +17709,7 @@
         <v>2316</v>
       </c>
       <c r="C582" t="s">
-        <v>2543</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.25">
@@ -17807,7 +17717,7 @@
         <v>2316</v>
       </c>
       <c r="C583" t="s">
-        <v>2544</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.25">
@@ -17815,7 +17725,7 @@
         <v>2316</v>
       </c>
       <c r="C584" t="s">
-        <v>2545</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.25">
@@ -17823,7 +17733,7 @@
         <v>2316</v>
       </c>
       <c r="C585" t="s">
-        <v>2546</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="586" spans="2:3" x14ac:dyDescent="0.25">
@@ -17839,7 +17749,7 @@
         <v>2316</v>
       </c>
       <c r="C587" t="s">
-        <v>2547</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.25">
@@ -17847,7 +17757,7 @@
         <v>2316</v>
       </c>
       <c r="C588" t="s">
-        <v>2548</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.25">
@@ -17855,7 +17765,7 @@
         <v>2316</v>
       </c>
       <c r="C589" t="s">
-        <v>2549</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="590" spans="2:3" x14ac:dyDescent="0.25">
@@ -17863,7 +17773,7 @@
         <v>2316</v>
       </c>
       <c r="C590" t="s">
-        <v>2550</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.25">
@@ -17871,7 +17781,7 @@
         <v>2316</v>
       </c>
       <c r="C591" t="s">
-        <v>2551</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="592" spans="2:3" x14ac:dyDescent="0.25">
@@ -17879,7 +17789,7 @@
         <v>2316</v>
       </c>
       <c r="C592" t="s">
-        <v>2552</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.25">
@@ -17887,7 +17797,7 @@
         <v>2316</v>
       </c>
       <c r="C593" t="s">
-        <v>2553</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="594" spans="2:3" x14ac:dyDescent="0.25">
@@ -17895,7 +17805,7 @@
         <v>2316</v>
       </c>
       <c r="C594" t="s">
-        <v>2554</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.25">
@@ -17903,7 +17813,7 @@
         <v>2316</v>
       </c>
       <c r="C595" t="s">
-        <v>2555</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.25">
@@ -17927,7 +17837,7 @@
         <v>2316</v>
       </c>
       <c r="C598" t="s">
-        <v>2556</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="599" spans="2:3" x14ac:dyDescent="0.25">
@@ -17959,7 +17869,7 @@
         <v>2316</v>
       </c>
       <c r="C602" t="s">
-        <v>2557</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.25">
@@ -17975,7 +17885,7 @@
         <v>2316</v>
       </c>
       <c r="C604" t="s">
-        <v>2558</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.25">
@@ -17991,7 +17901,7 @@
         <v>2316</v>
       </c>
       <c r="C606" t="s">
-        <v>2559</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.25">
@@ -17999,7 +17909,7 @@
         <v>2316</v>
       </c>
       <c r="C607" t="s">
-        <v>2560</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.25">
@@ -18007,7 +17917,7 @@
         <v>2316</v>
       </c>
       <c r="C608" t="s">
-        <v>2561</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.25">
@@ -18015,7 +17925,7 @@
         <v>2316</v>
       </c>
       <c r="C609" t="s">
-        <v>2562</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.25">
@@ -18023,7 +17933,7 @@
         <v>2316</v>
       </c>
       <c r="C610" t="s">
-        <v>2563</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.25">
@@ -18031,7 +17941,7 @@
         <v>2316</v>
       </c>
       <c r="C611" t="s">
-        <v>2564</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="612" spans="2:3" x14ac:dyDescent="0.25">
@@ -18065,10 +17975,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCA9050-4582-4055-9B7D-78FE6B7C92EF}">
-  <dimension ref="A1:C1838"/>
+  <dimension ref="A1:C1809"/>
   <sheetViews>
-    <sheetView topLeftCell="A1816" workbookViewId="0">
-      <selection activeCell="B1810" sqref="B1810:B1838"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1809" sqref="B2:C1809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32552,238 +32462,6 @@
         <v>313</v>
       </c>
     </row>
-    <row r="1810" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1810" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1810" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="1811" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1811" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1811" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="1812" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1812" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1812" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="1813" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1813" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1813" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="1814" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1814" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1814" t="s">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="1815" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1815" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1815" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="1816" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1816" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1816" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="1817" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1817" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1817" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="1818" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1818" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1818" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="1819" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1819" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1819" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="1820" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1820" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1820" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="1821" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1821" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1821" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="1822" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1822" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1822" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="1823" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1823" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1823" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="1824" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1824" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1824" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="1825" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1825" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1825" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="1826" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1826" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1826" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="1827" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1827" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1827" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="1828" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1828" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1828" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="1829" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1829" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1829" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="1830" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1830" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1830" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="1831" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1831" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1831" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="1832" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1832" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1832" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="1833" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1833" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1833" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="1834" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1834" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1834" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="1835" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1835" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1835" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="1836" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1836" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1836" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="1837" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1837" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1837" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="1838" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1838" t="s">
-        <v>2380</v>
-      </c>
-      <c r="C1838" t="s">
-        <v>2409</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32793,8 +32471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771DBB1F-492E-4D17-8058-ECD0172FC6F3}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C81" sqref="B2:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33427,7 +33105,7 @@
         <v>2316</v>
       </c>
       <c r="C78" t="s">
-        <v>2565</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -33451,7 +33129,7 @@
         <v>2316</v>
       </c>
       <c r="C81" t="s">
-        <v>2566</v>
+        <v>2536</v>
       </c>
     </row>
   </sheetData>
@@ -33463,8 +33141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC57AA4-71B1-4DC0-A03B-C59B37EF4063}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C82" sqref="B2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34141,8 +33819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC764B4-4F04-498C-B536-24C21621D2EA}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35429,8 +35107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663A548F-5CFF-4F24-A3EF-FE3AD52D33C4}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C63" sqref="B2:C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35955,8 +35633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F26D38-75AA-4174-BFD5-74E6750154AE}">
   <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C245" sqref="B2:C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
